--- a/spliced/struggle/2023-03-25_18-15-39/accelerometer_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-15-39/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-7.337000370025635</v>
+        <v>-1.487755507230762</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.728102207183838</v>
+        <v>-10.35288465023041</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1531223058700561</v>
+        <v>3.703868120908739</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-6.978799164295196</v>
+        <v>-4.7107778787613</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.664901077747345</v>
+        <v>-8.213166236877427</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.583686426281929</v>
+        <v>5.28016042709351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.8466638326644889</v>
+        <v>-6.86208564043045</v>
       </c>
       <c r="B4" t="n">
-        <v>-10.86674356460571</v>
+        <v>-5.234421730041505</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6750529706478123</v>
+        <v>4.114273145794865</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.827013075351717</v>
+        <v>-6.348576307296753</v>
       </c>
       <c r="B5" t="n">
-        <v>-11.90198707580566</v>
+        <v>-6.586597442626955</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7917567044496545</v>
+        <v>1.944473057985312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.430202007293701</v>
+        <v>-4.850189305841925</v>
       </c>
       <c r="B6" t="n">
-        <v>-9.128879070281979</v>
+        <v>-7.467463970184327</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.301793336868287</v>
+        <v>6.846671938896179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.715105593204499</v>
+        <v>0.7637936472892619</v>
       </c>
       <c r="B7" t="n">
-        <v>-7.065108776092529</v>
+        <v>-3.36792755126954</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.082018077373505</v>
+        <v>6.735066413879379</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1.636100172996518</v>
+        <v>-5.654898561537283</v>
       </c>
       <c r="B8" t="n">
-        <v>-6.636342585086819</v>
+        <v>-7.294652104377757</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.990647315979012</v>
+        <v>-0.4670590609312262</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3153681159019437</v>
+        <v>1.988154411315929</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.676534265279773</v>
+        <v>-8.051345348358154</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.98052114248275</v>
+        <v>-4.82868674397469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.697560787200929</v>
+        <v>1.445369705557815</v>
       </c>
       <c r="B10" t="n">
-        <v>-10.05280113220215</v>
+        <v>-8.260547280311584</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3640046119689977</v>
+        <v>-3.376170933246607</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.751265227794648</v>
+        <v>-2.370766460895542</v>
       </c>
       <c r="B11" t="n">
-        <v>-7.867369353771209</v>
+        <v>-7.741124629974364</v>
       </c>
       <c r="C11" t="n">
-        <v>3.60850352048874</v>
+        <v>-6.762903213500985</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.462656617164607</v>
+        <v>-2.55821630358695</v>
       </c>
       <c r="B12" t="n">
-        <v>-7.957168936729431</v>
+        <v>-8.715493917465219</v>
       </c>
       <c r="C12" t="n">
-        <v>3.225063145160674</v>
+        <v>-6.844864040613141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.487755507230762</v>
+        <v>-0.8884068131446955</v>
       </c>
       <c r="B13" t="n">
-        <v>-10.35288465023041</v>
+        <v>-10.84955549240112</v>
       </c>
       <c r="C13" t="n">
-        <v>3.703868120908739</v>
+        <v>1.661297619342809</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-4.7107778787613</v>
+        <v>-3.758049488067625</v>
       </c>
       <c r="B14" t="n">
-        <v>-8.213166236877427</v>
+        <v>-8.76593214273451</v>
       </c>
       <c r="C14" t="n">
-        <v>5.28016042709351</v>
+        <v>3.196124792099005</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-6.86208564043045</v>
+        <v>-3.226068019866951</v>
       </c>
       <c r="B15" t="n">
-        <v>-5.234421730041505</v>
+        <v>-4.671105861663801</v>
       </c>
       <c r="C15" t="n">
-        <v>4.114273145794865</v>
+        <v>4.809621334075939</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-6.348576307296753</v>
+        <v>-4.81333899497986</v>
       </c>
       <c r="B16" t="n">
-        <v>-6.586597442626955</v>
+        <v>-0.7696201205253579</v>
       </c>
       <c r="C16" t="n">
-        <v>1.944473057985312</v>
+        <v>7.391847074031832</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-4.850189305841925</v>
+        <v>-0.6115292310714668</v>
       </c>
       <c r="B17" t="n">
-        <v>-7.467463970184327</v>
+        <v>-3.946480035781865</v>
       </c>
       <c r="C17" t="n">
-        <v>6.846671938896179</v>
+        <v>7.73033595085144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.7637936472892619</v>
+        <v>-4.580467939376843</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.36792755126954</v>
+        <v>-2.483635365962976</v>
       </c>
       <c r="C18" t="n">
-        <v>6.735066413879379</v>
+        <v>9.400022864341736</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-5.654898561537283</v>
+        <v>-3.186845898628217</v>
       </c>
       <c r="B19" t="n">
-        <v>-7.294652104377757</v>
+        <v>3.314929008483903</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4670590609312262</v>
+        <v>7.02214622497557</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.988154411315929</v>
+        <v>-0.8589091598987735</v>
       </c>
       <c r="B20" t="n">
-        <v>-8.051345348358154</v>
+        <v>5.796535491943349</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.82868674397469</v>
+        <v>4.699775040149696</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.445369705557815</v>
+        <v>-6.590956926345826</v>
       </c>
       <c r="B21" t="n">
-        <v>-8.260547280311584</v>
+        <v>-0.2845994234085083</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.376170933246607</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-2.370766460895542</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-7.741124629974364</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-6.762903213500985</v>
+        <v>5.918066263198853</v>
       </c>
     </row>
   </sheetData>
